--- a/Datos/Database by set/Set with text box/Xlsx sets/Fate Reforged Tokens (TFRF).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Fate Reforged Tokens (TFRF).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,112 +444,28 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Manifest</t>
+          <t>('Manifest', ['Creature', '(You can cover a face-down manifested creature with this reminder card.', 'A manifested creature card can be turned face up any time for its mana cost. A face-down card can also be turned face up for its morph cost.)', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Creature</t>
+          <t>('Monk', ['Token Creature — Monk', 'Prowess', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>(You can cover a face-down manifested creature with this reminder card.</t>
+          <t>('Spirit', ['Token Creature — Spirit', 'Flying', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A manifested creature card can be turned face up any time for its mana cost. A face-down card can also be turned face up for its morph cost.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Monk</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Token Creature — Monk</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Prowess</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Spirit</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Token Creature — Spirit</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Warrior</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Token Creature — Warrior</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2/1</t>
+          <t>('Warrior', ['Token Creature — Warrior', '2/1'])</t>
         </is>
       </c>
     </row>
